--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS005-001-JenisParameter.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS005-001-JenisParameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC1A48-44BE-4095-BA2C-FDCDA8D7AEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E77CC-8B9C-4A42-A94B-C37340C56AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>RUN</t>
   </si>
@@ -120,13 +120,16 @@
     <t>N</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Tidak</t>
   </si>
   <si>
     <t>Penyelia Settlement</t>
+  </si>
+  <si>
+    <t>SIDEBAR_SUBMENU_SUBMENU</t>
+  </si>
+  <si>
+    <t>Setup Kelengkapan Kepesertaan</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -528,23 +531,24 @@
     <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,25 +586,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
@@ -634,26 +641,26 @@
       <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>100000</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
